--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="256">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Schedule.meta.profile:sas-schedule-aggregator</t>
+  </si>
+  <si>
+    <t>sas-schedule-aggregator</t>
   </si>
   <si>
     <t>Schedule.meta.security</t>
@@ -1108,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1117,9 +1123,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.83203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2387,9 +2393,11 @@
         <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2398,7 +2406,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2410,16 +2418,16 @@
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2430,7 +2438,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -2445,13 +2453,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2469,7 +2477,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2495,10 +2503,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2521,16 +2529,16 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2556,13 +2564,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2580,7 +2588,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2606,10 +2614,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2620,28 +2628,28 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2667,13 +2675,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -2691,13 +2699,13 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
@@ -2717,10 +2725,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2737,22 +2745,22 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2778,13 +2786,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -2802,7 +2810,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2828,14 +2836,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2854,16 +2862,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2889,13 +2897,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -2913,7 +2921,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2928,7 +2936,7 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
@@ -2939,21 +2947,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -2965,16 +2973,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3024,22 +3032,22 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -3050,14 +3058,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3076,15 +3084,17 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3121,17 +3131,19 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3143,10 +3155,10 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3157,14 +3169,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3185,13 +3195,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3230,19 +3240,17 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3251,7 +3259,7 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>114</v>
@@ -3268,13 +3276,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3296,13 +3304,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3353,7 +3361,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3362,7 +3370,7 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>114</v>
@@ -3379,14 +3387,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3399,26 +3409,22 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3475,13 +3481,13 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -3492,14 +3498,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3512,22 +3518,26 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3575,7 +3585,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3587,24 +3597,24 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3615,36 +3625,32 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q23" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
         <v>78</v>
       </c>
@@ -3688,13 +3694,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -3706,18 +3712,18 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3734,26 +3740,30 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="R24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3773,11 +3783,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -3795,13 +3807,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -3816,15 +3828,15 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3835,7 +3847,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -3847,13 +3859,13 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3880,11 +3892,11 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -3902,7 +3914,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3920,18 +3932,18 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3942,7 +3954,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -3954,13 +3966,13 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3987,11 +3999,11 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4009,7 +4021,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4027,18 +4039,18 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4046,7 +4058,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4061,17 +4073,15 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4096,13 +4106,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4120,10 +4128,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
@@ -4138,18 +4146,18 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4157,10 +4165,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4172,15 +4180,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4229,13 +4239,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4247,18 +4257,18 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4278,16 +4288,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4338,7 +4348,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4356,9 +4366,118 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="M30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Schedule, dérivé de FrSchedule, pour le service d'agrégation de créneaux de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
+    <t>Profil de Schedule, dérivé de FrSchedule, pour le service d'agrégation de créneaux de la plateforme SAS [Commun cas d'usage PS Indiv et CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
